--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,19 +86,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>附加奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pars1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero3</t>
+  </si>
+  <si>
     <t>AddtionRewardType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pars1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,13 +521,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -528,9 +535,9 @@
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -551,10 +558,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
@@ -597,26 +604,61 @@
         <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,14 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -98,14 +90,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哈哈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero3</t>
-  </si>
-  <si>
     <t>AddtionRewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你敢和我老朱一站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你敢和我老朱二站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打不过你你丫厉害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死猪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,27 +499,27 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -527,21 +536,21 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="26.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="26" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -552,42 +561,42 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -598,27 +607,27 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -627,12 +636,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
@@ -644,15 +653,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>

--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,22 @@
   </si>
   <si>
     <t>死猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleBackground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhandoubeijing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,16 +515,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -530,27 +546,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="26.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="26" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="26.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="26" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -564,16 +580,19 @@
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -587,16 +606,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -609,17 +631,20 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -629,14 +654,17 @@
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -646,14 +674,17 @@
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -663,17 +694,20 @@
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hero1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Int</t>
   </si>
   <si>
@@ -78,6 +86,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AddtionRewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>附加奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,50 +99,6 @@
   </si>
   <si>
     <t>参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddtionRewardType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你敢和我老朱一站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你敢和我老朱二站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打不过你你丫厉害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小猪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种猪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死猪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleBackground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhandoubeijing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,16 +494,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -546,13 +514,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -560,13 +528,13 @@
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="5" width="26.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="26" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -577,48 +545,42 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -629,85 +591,38 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-1</v>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-1</v>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -520,7 +520,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -610,6 +610,9 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
@@ -617,6 +620,9 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,14 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -99,6 +91,10 @@
   </si>
   <si>
     <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛逼的战斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,16 +490,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -520,14 +516,14 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
+    <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
@@ -545,16 +541,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
@@ -562,22 +558,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
@@ -591,38 +587,38 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="BattleConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,7 +94,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛逼的战斗</t>
+    <t>守卫（第一战）</t>
+  </si>
+  <si>
+    <t>守卫（第一战）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫（第二战）</t>
+  </si>
+  <si>
+    <t>守卫（第二战）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫（第三战）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元神（第一战）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元神（第二战）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元神（第三战）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗岗（第一战）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗岗（第二战）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从洞里钻出一只猪妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏在暗处的猪妖突然冲了出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一队猪妖守护着八戒的元神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一队猪妖守护着八戒的元神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒的元神被惊醒了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫不断的拥挤过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫开始变得越来越暴躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪妖统领出现了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意环境，随时战斗！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的守卫变多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪妖统领疯狂的冲击过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一岗，宝物就在前面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到卫兵，拿到武器！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>那个守卫卖萌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>….</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打不过就跑，没什么大不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打猪妖打到手软，怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撑死胆大的，赶走这些猪妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿，这猪不怕人啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水刚好，就差肉！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +315,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,16 +607,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -510,27 +638,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -553,7 +681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -576,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -599,31 +727,845 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2">
+        <v>51</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
-        <v>11</v>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2">
+        <v>51</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2">
+        <v>51</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="2">
+        <v>51</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="2">
+        <v>49</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2">
+        <v>51</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2">
+        <v>49</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2">
+        <v>51</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2">
+        <v>49</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>10</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2">
+        <v>51</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="2">
+        <v>49</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2">
+        <v>51</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>10</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="2">
+        <v>49</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="2">
+        <v>51</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2">
+        <v>49</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="2">
+        <v>51</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2">
+        <v>51</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2">
+        <v>49</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="2">
+        <v>51</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2">
+        <v>51</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="2">
+        <v>49</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="2">
+        <v>51</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="2">
+        <v>51</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>

--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="5985" yWindow="90" windowWidth="14145" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="181">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,151 +78,529 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AddtionRewardType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pars1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫（第一战）</t>
-  </si>
-  <si>
-    <t>守卫（第一战）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫（第二战）</t>
-  </si>
-  <si>
-    <t>守卫（第二战）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫（第三战）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元神（第一战）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元神（第二战）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元神（第三战）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗岗（第一战）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗岗（第二战）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从洞里钻出一只猪妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏在暗处的猪妖突然冲了出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一队猪妖守护着八戒的元神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一队猪妖守护着八戒的元神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八戒的元神被惊醒了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫不断的拥挤过来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫开始变得越来越暴躁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪妖统领出现了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意环境，随时战斗！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里的守卫变多了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪妖统领疯狂的冲击过来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一岗，宝物就在前面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打到卫兵，拿到武器！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>那个守卫卖萌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>….</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打不过就跑，没什么大不了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打猪妖打到手软，怎么办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撑死胆大的，赶走这些猪妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘿，这猪不怕人啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水刚好，就差肉！</t>
+    <t>云栈洞-固定战斗1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞-固定战斗1.2</t>
+  </si>
+  <si>
+    <t>云栈洞-固定战斗2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞-固定战斗2.2</t>
+  </si>
+  <si>
+    <t>云栈洞-固定战斗3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞-固定战斗3.2</t>
+  </si>
+  <si>
+    <t>云栈洞-固定战斗4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞-固定战斗4.2</t>
+  </si>
+  <si>
+    <t>云栈洞-随机战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞-随机战斗2</t>
+  </si>
+  <si>
+    <t>云栈洞-随机战斗3</t>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗1.2</t>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗2.2</t>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗2.3</t>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗3.2</t>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗3.3</t>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗4.2</t>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗4.3</t>
+  </si>
+  <si>
+    <t>黄风岭-随机战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭-随机战斗2</t>
+  </si>
+  <si>
+    <t>黄风岭-随机战斗3</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗1.2</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗2.2</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗2.3</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗3.1</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗3.2</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗3.3</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗4.1</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗4.2</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗4.3</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗5.1</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗5.2</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗5.3</t>
+  </si>
+  <si>
+    <t>白骨洞-随机战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞-随机战斗2</t>
+  </si>
+  <si>
+    <t>白骨洞-随机战斗3</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞-固定战斗1.2</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗1.3</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗2.1</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗2.2</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗2.3</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗3.1</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗3.2</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗3.3</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗4.1</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗4.2</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗4.3</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗5.1</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗5.2</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗5.3</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗6.1</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗6.2</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗6.3</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗7.1</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗7.2</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗7.3</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗8.1</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗8.2</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗8.3</t>
+  </si>
+  <si>
+    <t>波月洞-随机战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞-随机战斗2</t>
+  </si>
+  <si>
+    <t>波月洞-随机战斗3</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗1.2</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗1.3</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗2.1</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗2.2</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗2.3</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗3.1</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗3.2</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗3.3</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗4.1</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗4.2</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗4.3</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗5.1</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗5.2</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗5.3</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗6.1</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗6.2</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗6.3</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗7.1</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗7.2</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗7.3</t>
+  </si>
+  <si>
+    <t>莲花洞-随机战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞-随机战斗2</t>
+  </si>
+  <si>
+    <t>莲花洞-随机战斗3</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞-固定战斗1.2</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗1.3</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗2.1</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗2.2</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗2.3</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗3.1</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗3.2</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗3.3</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗4.1</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗4.2</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗4.3</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗5.1</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗5.2</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗5.3</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗6.1</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗6.2</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗6.3</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗7.1</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗7.2</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗7.3</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗8.1</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗8.2</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗8.3</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗9.1</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗9.2</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗9.3</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗10.1</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗10.2</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗10.3</t>
+  </si>
+  <si>
+    <t>火云洞-随机战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞-随机战斗2</t>
+  </si>
+  <si>
+    <t>火云洞-随机战斗3</t>
+  </si>
+  <si>
+    <t>云栈洞jjc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞jjc2</t>
+  </si>
+  <si>
+    <t>云栈洞jjc3</t>
+  </si>
+  <si>
+    <t>云栈洞jjc4</t>
+  </si>
+  <si>
+    <t>云栈洞jjc5</t>
+  </si>
+  <si>
+    <t>黄风岭jjc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭jjc2</t>
+  </si>
+  <si>
+    <t>黄风岭jjc3</t>
+  </si>
+  <si>
+    <t>黄风岭jjc4</t>
+  </si>
+  <si>
+    <t>黄风岭jjc5</t>
+  </si>
+  <si>
+    <t>白骨洞jjc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞jjc2</t>
+  </si>
+  <si>
+    <t>白骨洞jjc3</t>
+  </si>
+  <si>
+    <t>白骨洞jjc4</t>
+  </si>
+  <si>
+    <t>白骨洞jjc5</t>
+  </si>
+  <si>
+    <t>波月洞jjc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞jjc2</t>
+  </si>
+  <si>
+    <t>波月洞jjc3</t>
+  </si>
+  <si>
+    <t>波月洞jjc4</t>
+  </si>
+  <si>
+    <t>波月洞jjc5</t>
+  </si>
+  <si>
+    <t>莲花洞jjc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞jjc2</t>
+  </si>
+  <si>
+    <t>莲花洞jjc3</t>
+  </si>
+  <si>
+    <t>莲花洞jjc4</t>
+  </si>
+  <si>
+    <t>莲花洞jjc5</t>
+  </si>
+  <si>
+    <t>莲花洞jjc6</t>
+  </si>
+  <si>
+    <t>火云洞jjc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞jjc2</t>
+  </si>
+  <si>
+    <t>火云洞jjc3</t>
+  </si>
+  <si>
+    <t>火云洞jjc4</t>
+  </si>
+  <si>
+    <t>火云洞jjc5</t>
+  </si>
+  <si>
+    <t>火云洞jjc6</t>
+  </si>
+  <si>
+    <t>火云洞jjc7</t>
+  </si>
+  <si>
+    <t>RewardGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddtionRewarditem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加奖励物品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,16 +648,37 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,16 +686,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -638,27 +1056,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="19.625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="12.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -675,13 +1093,16 @@
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -701,10 +1122,13 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -721,646 +1145,540 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="2">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="2">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6">
+        <v>64</v>
+      </c>
+      <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2">
-        <v>10</v>
-      </c>
-      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="6">
+        <v>89</v>
+      </c>
+      <c r="H19" s="2">
         <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="2">
         <v>51</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="C22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="C24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="6">
+        <v>60</v>
+      </c>
+      <c r="H25" s="2">
         <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="C26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>10</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>31</v>
+      <c r="C27" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E27" s="2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>10</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>42</v>
+      <c r="C28" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E28" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>10</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="2">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="2">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2">
+        <v>4</v>
+      </c>
+      <c r="G30" s="6">
+        <v>69</v>
+      </c>
+      <c r="H30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="2">
-        <v>10</v>
-      </c>
-      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="2">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>10</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="C32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>10</v>
-      </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="C33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="2">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" s="6">
+        <v>70</v>
+      </c>
+      <c r="H33" s="2">
         <v>1</v>
       </c>
-      <c r="G33" s="2">
-        <v>10</v>
-      </c>
-      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1368,39 +1686,35 @@
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2">
+        <v>4</v>
+      </c>
+      <c r="G36" s="6">
+        <v>68</v>
+      </c>
+      <c r="H36" s="2">
         <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -1408,19 +1722,14 @@
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="2">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1428,19 +1737,14 @@
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -1448,19 +1752,20 @@
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="2">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2">
+        <v>4</v>
+      </c>
+      <c r="G39" s="3">
+        <v>67</v>
+      </c>
+      <c r="H39" s="2">
         <v>1</v>
-      </c>
-      <c r="G39" s="2">
-        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -1468,19 +1773,14 @@
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1488,19 +1788,20 @@
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
+        <v>64</v>
+      </c>
+      <c r="H41" s="2">
         <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>10</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1508,19 +1809,19 @@
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
+        <v>63</v>
+      </c>
+      <c r="H42" s="2">
         <v>1</v>
-      </c>
-      <c r="G42" s="2">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1528,19 +1829,13 @@
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1548,25 +1843,1797 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="2">
+        <v>95</v>
+      </c>
+      <c r="F44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="2">
+        <v>96</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="2">
+        <v>101</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="2">
+        <v>102</v>
+      </c>
+      <c r="F47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="2">
+        <v>103</v>
+      </c>
+      <c r="F48" s="2">
+        <v>5</v>
+      </c>
+      <c r="G48" s="6">
+        <v>84</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="2">
+        <v>106</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="2">
+        <v>107</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
         <v>48</v>
       </c>
-      <c r="E44" s="2">
+      <c r="C51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>108</v>
+      </c>
+      <c r="F51" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="2">
+        <v>111</v>
+      </c>
+      <c r="F52" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="2">
+        <v>112</v>
+      </c>
+      <c r="F53" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
         <v>51</v>
       </c>
-      <c r="F44" s="2">
+      <c r="C54" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="2">
+        <v>113</v>
+      </c>
+      <c r="F54" s="2">
+        <v>5</v>
+      </c>
+      <c r="G54" s="8">
+        <v>101</v>
+      </c>
+      <c r="H54" s="2">
         <v>1</v>
       </c>
-      <c r="G44" s="2">
-        <v>10</v>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="2">
+        <v>116</v>
+      </c>
+      <c r="F55" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>53</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>117</v>
+      </c>
+      <c r="F56" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <v>54</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="2">
+        <v>118</v>
+      </c>
+      <c r="F57" s="2">
+        <v>5</v>
+      </c>
+      <c r="G57" s="6">
+        <v>66</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="2">
+        <v>121</v>
+      </c>
+      <c r="F58" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="2">
+        <v>122</v>
+      </c>
+      <c r="F59" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <v>57</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="2">
+        <v>123</v>
+      </c>
+      <c r="F60" s="2">
+        <v>5</v>
+      </c>
+      <c r="G60" s="6">
+        <v>73</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>58</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="2">
+        <v>126</v>
+      </c>
+      <c r="F61" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="2">
+        <v>127</v>
+      </c>
+      <c r="F62" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="2">
+        <v>128</v>
+      </c>
+      <c r="F63" s="2">
+        <v>5</v>
+      </c>
+      <c r="G63" s="6">
+        <v>79</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2">
+        <v>131</v>
+      </c>
+      <c r="F64" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="2">
+        <v>132</v>
+      </c>
+      <c r="F65" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="2">
+        <v>133</v>
+      </c>
+      <c r="F66" s="2">
+        <v>5</v>
+      </c>
+      <c r="G66" s="6">
+        <v>72</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>64</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="2">
+        <v>134</v>
+      </c>
+      <c r="F67" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>65</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="2">
+        <v>135</v>
+      </c>
+      <c r="F68" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
+        <v>66</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="2">
+        <v>142</v>
+      </c>
+      <c r="F69" s="2">
+        <v>5</v>
+      </c>
+      <c r="G69" s="6">
+        <v>74</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <v>67</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="2">
+        <v>136</v>
+      </c>
+      <c r="F70" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>68</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="2">
+        <v>137</v>
+      </c>
+      <c r="F71" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <v>69</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="2">
+        <v>138</v>
+      </c>
+      <c r="F72" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
+        <v>70</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" s="2">
+        <v>143</v>
+      </c>
+      <c r="F73" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="2">
+        <v>71</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="2">
+        <v>144</v>
+      </c>
+      <c r="F74" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B75" s="2">
+        <v>72</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="2">
+        <v>145</v>
+      </c>
+      <c r="F75" s="2">
+        <v>6</v>
+      </c>
+      <c r="G75" s="6">
+        <v>82</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="2">
+        <v>73</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="2">
+        <v>147</v>
+      </c>
+      <c r="F76" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="2">
+        <v>74</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="2">
+        <v>148</v>
+      </c>
+      <c r="F77" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B78" s="2">
+        <v>75</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="2">
+        <v>149</v>
+      </c>
+      <c r="F78" s="2">
+        <v>6</v>
+      </c>
+      <c r="G78" s="6">
+        <v>90</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="2">
+        <v>76</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" s="2">
+        <v>151</v>
+      </c>
+      <c r="F79" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="2">
+        <v>77</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="2">
+        <v>152</v>
+      </c>
+      <c r="F80" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
+        <v>78</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="2">
+        <v>153</v>
+      </c>
+      <c r="F81" s="2">
+        <v>6</v>
+      </c>
+      <c r="G81" s="6">
+        <v>83</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="2">
+        <v>79</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" s="2">
+        <v>156</v>
+      </c>
+      <c r="F82" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="2">
+        <v>80</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="2">
+        <v>157</v>
+      </c>
+      <c r="F83" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B84" s="2">
+        <v>81</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="2">
+        <v>158</v>
+      </c>
+      <c r="F84" s="2">
+        <v>6</v>
+      </c>
+      <c r="G84" s="6">
+        <v>86</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="2">
+        <v>82</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="2">
+        <v>168</v>
+      </c>
+      <c r="F85" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="2">
+        <v>83</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="2">
+        <v>169</v>
+      </c>
+      <c r="F86" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B87" s="2">
+        <v>84</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" s="2">
+        <v>170</v>
+      </c>
+      <c r="F87" s="2">
+        <v>6</v>
+      </c>
+      <c r="G87" s="6">
+        <v>80</v>
+      </c>
+      <c r="H87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="2">
+        <v>85</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="2">
+        <v>173</v>
+      </c>
+      <c r="F88" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="2">
+        <v>86</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" s="2">
+        <v>174</v>
+      </c>
+      <c r="F89" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="2">
+        <v>87</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" s="2">
+        <v>190</v>
+      </c>
+      <c r="F90" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="2">
+        <v>88</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" s="2">
+        <v>180</v>
+      </c>
+      <c r="F91" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="2">
+        <v>89</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" s="2">
+        <v>181</v>
+      </c>
+      <c r="F92" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B93" s="2">
+        <v>90</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E93" s="2">
+        <v>191</v>
+      </c>
+      <c r="F93" s="2">
+        <v>6</v>
+      </c>
+      <c r="G93" s="6">
+        <v>71</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="2">
+        <v>91</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="2">
+        <v>182</v>
+      </c>
+      <c r="F94" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="2">
+        <v>92</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="2">
+        <v>183</v>
+      </c>
+      <c r="F95" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="2">
+        <v>93</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96" s="2">
+        <v>184</v>
+      </c>
+      <c r="F96" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="2">
+        <v>94</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97" s="2">
+        <v>192</v>
+      </c>
+      <c r="F97" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="2">
+        <v>95</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="2">
+        <v>193</v>
+      </c>
+      <c r="F98" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B99" s="2">
+        <v>96</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E99" s="2">
+        <v>194</v>
+      </c>
+      <c r="F99" s="2">
+        <v>7</v>
+      </c>
+      <c r="G99" s="6">
+        <v>78</v>
+      </c>
+      <c r="H99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="2">
+        <v>97</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E100" s="2">
+        <v>197</v>
+      </c>
+      <c r="F100" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="2">
+        <v>98</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" s="2">
+        <v>198</v>
+      </c>
+      <c r="F101" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B102" s="2">
+        <v>99</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102" s="2">
+        <v>199</v>
+      </c>
+      <c r="F102" s="2">
+        <v>7</v>
+      </c>
+      <c r="G102" s="6">
+        <v>79</v>
+      </c>
+      <c r="H102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="2">
+        <v>100</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E103" s="2">
+        <v>202</v>
+      </c>
+      <c r="F103" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="2">
+        <v>101</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E104" s="2">
+        <v>203</v>
+      </c>
+      <c r="F104" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B105" s="2">
+        <v>102</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="2">
+        <v>204</v>
+      </c>
+      <c r="F105" s="2">
+        <v>7</v>
+      </c>
+      <c r="G105" s="6">
+        <v>76</v>
+      </c>
+      <c r="H105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="2">
+        <v>103</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E106" s="2">
+        <v>206</v>
+      </c>
+      <c r="F106" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="2">
+        <v>104</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="2">
+        <v>207</v>
+      </c>
+      <c r="F107" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B108" s="2">
+        <v>105</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="2">
+        <v>208</v>
+      </c>
+      <c r="F108" s="2">
+        <v>7</v>
+      </c>
+      <c r="G108" s="6">
+        <v>77</v>
+      </c>
+      <c r="H108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="2">
+        <v>106</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E109" s="2">
+        <v>211</v>
+      </c>
+      <c r="F109" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="2">
+        <v>107</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E110" s="2">
+        <v>212</v>
+      </c>
+      <c r="F110" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B111" s="2">
+        <v>108</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" s="2">
+        <v>213</v>
+      </c>
+      <c r="F111" s="2">
+        <v>7</v>
+      </c>
+      <c r="G111" s="6">
+        <v>75</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="2">
+        <v>109</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" s="2">
+        <v>216</v>
+      </c>
+      <c r="F112" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="2">
+        <v>110</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E113" s="2">
+        <v>217</v>
+      </c>
+      <c r="F113" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B114" s="2">
+        <v>111</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="2">
+        <v>218</v>
+      </c>
+      <c r="F114" s="2">
+        <v>7</v>
+      </c>
+      <c r="G114" s="6">
+        <v>81</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="2">
+        <v>112</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E115" s="2">
+        <v>221</v>
+      </c>
+      <c r="F115" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="2">
+        <v>113</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E116" s="2">
+        <v>222</v>
+      </c>
+      <c r="F116" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="2">
+        <v>114</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E117" s="2">
+        <v>223</v>
+      </c>
+      <c r="F117" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="2">
+        <v>115</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E118" s="2">
+        <v>226</v>
+      </c>
+      <c r="F118" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="2">
+        <v>116</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="2">
+        <v>227</v>
+      </c>
+      <c r="F119" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B120" s="2">
+        <v>117</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E120" s="2">
+        <v>228</v>
+      </c>
+      <c r="F120" s="2">
+        <v>7</v>
+      </c>
+      <c r="G120" s="6">
+        <v>87</v>
+      </c>
+      <c r="H120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="2">
+        <v>118</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="2">
+        <v>231</v>
+      </c>
+      <c r="F121" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="2">
+        <v>119</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E122" s="2">
+        <v>232</v>
+      </c>
+      <c r="F122" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="2">
+        <v>120</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E123" s="2">
+        <v>233</v>
+      </c>
+      <c r="F123" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="2">
+        <v>121</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" s="2">
+        <v>234</v>
+      </c>
+      <c r="F124" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="2">
+        <v>122</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E125" s="2">
+        <v>235</v>
+      </c>
+      <c r="F125" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B126" s="2">
+        <v>123</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E126" s="2">
+        <v>244</v>
+      </c>
+      <c r="F126" s="2">
+        <v>7</v>
+      </c>
+      <c r="G126" s="6">
+        <v>88</v>
+      </c>
+      <c r="H126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="2">
+        <v>124</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E127" s="2">
+        <v>236</v>
+      </c>
+      <c r="F127" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="2">
+        <v>125</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E128" s="2">
+        <v>237</v>
+      </c>
+      <c r="F128" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="2">
+        <v>126</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E129" s="2">
+        <v>238</v>
+      </c>
+      <c r="F129" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="2">
+        <v>127</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E130" s="2">
+        <v>272</v>
+      </c>
+      <c r="F130" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="2">
+        <v>128</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131" s="2">
+        <v>273</v>
+      </c>
+      <c r="F131" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="2">
+        <v>129</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E132" s="2">
+        <v>274</v>
+      </c>
+      <c r="F132" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="2">
+        <v>130</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" s="2">
+        <v>275</v>
+      </c>
+      <c r="F133" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="2">
+        <v>131</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E134" s="2">
+        <v>276</v>
+      </c>
+      <c r="F134" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="2">
+        <v>132</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E135" s="2">
+        <v>277</v>
+      </c>
+      <c r="F135" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="2">
+        <v>133</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E136" s="2">
+        <v>278</v>
+      </c>
+      <c r="F136" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="2">
+        <v>134</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E137" s="2">
+        <v>279</v>
+      </c>
+      <c r="F137" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="2">
+        <v>135</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" s="2">
+        <v>280</v>
+      </c>
+      <c r="F138" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="2">
+        <v>136</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E139" s="2">
+        <v>281</v>
+      </c>
+      <c r="F139" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="2">
+        <v>137</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E140" s="2">
+        <v>282</v>
+      </c>
+      <c r="F140" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="2">
+        <v>138</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E141" s="2">
+        <v>283</v>
+      </c>
+      <c r="F141" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="2">
+        <v>139</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E142" s="2">
+        <v>284</v>
+      </c>
+      <c r="F142" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="2">
+        <v>140</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E143" s="2">
+        <v>285</v>
+      </c>
+      <c r="F143" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="2">
+        <v>141</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E144" s="2">
+        <v>286</v>
+      </c>
+      <c r="F144" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="2">
+        <v>142</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E145" s="2">
+        <v>287</v>
+      </c>
+      <c r="F145" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="2">
+        <v>143</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E146" s="2">
+        <v>288</v>
+      </c>
+      <c r="F146" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="2">
+        <v>144</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E147" s="2">
+        <v>289</v>
+      </c>
+      <c r="F147" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="2">
+        <v>145</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E148" s="2">
+        <v>290</v>
+      </c>
+      <c r="F148" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="2">
+        <v>146</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E149" s="2">
+        <v>291</v>
+      </c>
+      <c r="F149" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="2">
+        <v>147</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E150" s="2">
+        <v>292</v>
+      </c>
+      <c r="F150" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="2">
+        <v>148</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E151" s="2">
+        <v>293</v>
+      </c>
+      <c r="F151" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="2">
+        <v>149</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E152" s="2">
+        <v>294</v>
+      </c>
+      <c r="F152" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="2">
+        <v>150</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E153" s="2">
+        <v>295</v>
+      </c>
+      <c r="F153" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="2">
+        <v>151</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E154" s="2">
+        <v>296</v>
+      </c>
+      <c r="F154" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="2">
+        <v>152</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E155" s="2">
+        <v>297</v>
+      </c>
+      <c r="F155" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="2">
+        <v>153</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E156" s="2">
+        <v>298</v>
+      </c>
+      <c r="F156" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="2">
+        <v>154</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E157" s="2">
+        <v>299</v>
+      </c>
+      <c r="F157" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="2">
+        <v>155</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E158" s="2">
+        <v>300</v>
+      </c>
+      <c r="F158" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="2">
+        <v>156</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E159" s="2">
+        <v>301</v>
+      </c>
+      <c r="F159" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="2">
+        <v>157</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E160" s="2">
+        <v>302</v>
+      </c>
+      <c r="F160" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="2">
+        <v>158</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E161" s="2">
+        <v>303</v>
+      </c>
+      <c r="F161" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="2">
+        <v>159</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E162" s="2">
+        <v>304</v>
+      </c>
+      <c r="F162" s="2">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiexiongping/Documents/github/workdir/ExcelConfig/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="90" windowWidth="14145" windowHeight="9180" activeTab="1"/>
+    <workbookView xWindow="5980" yWindow="460" windowWidth="17740" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="BattleConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="188">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,44 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>云栈洞-固定战斗1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云栈洞-固定战斗1.2</t>
-  </si>
-  <si>
-    <t>云栈洞-固定战斗2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云栈洞-固定战斗2.2</t>
-  </si>
-  <si>
-    <t>云栈洞-固定战斗3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云栈洞-固定战斗3.2</t>
-  </si>
-  <si>
-    <t>云栈洞-固定战斗4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云栈洞-固定战斗4.2</t>
-  </si>
-  <si>
-    <t>云栈洞-随机战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云栈洞-随机战斗2</t>
-  </si>
-  <si>
-    <t>云栈洞-随机战斗3</t>
-  </si>
-  <si>
     <t>黄风岭-固定战斗1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,6 +573,510 @@
   </si>
   <si>
     <t>奖励数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个小妖跳了出来，不是站着了还以为是野味呢？</t>
+    <rPh sb="0" eb="1">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao yao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao le</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu lai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>le</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hai yi wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ye wei</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞口小妖</t>
+    <rPh sb="0" eb="1">
+      <t>dong kou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小妖好像饿了，你要不要把自己给他吃呢？</t>
+    <rPh sb="0" eb="1">
+      <t>xiao yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao xiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>e le</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yao bu yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>z ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花痴</t>
+    <rPh sb="0" eb="1">
+      <t>hua chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾经我也是痴情的种子啊，可是那年闹洪灾的时候淹死了。</t>
+    <rPh sb="0" eb="1">
+      <t>ceng jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ye shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chi qing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong zi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>a</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>na nian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>nao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hong zai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yan si</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路哪么宽为啥呢？花痴也是痴嘛。</t>
+    <rPh sb="0" eb="1">
+      <t>lu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>na me</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei sha</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ne</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hua chi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ye shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂役</t>
+    <rPh sb="0" eb="1">
+      <t>za yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它们说打杂的都是领导，一不小心我都做了上百年的领导啦。</t>
+    <rPh sb="0" eb="1">
+      <t>ta men</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da za</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dou shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ling dao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiao xin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zuo le</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shang bai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ling dao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>la</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂役</t>
+    <rPh sb="0" eb="1">
+      <t>za y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任劳任怨才是出路，打杂的都是为了吃饭啊。敢为！今天有肉吃吗？</t>
+    <rPh sb="0" eb="1">
+      <t>ren lao ren yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu lu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>da za</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dou shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei le</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi fan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>a</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gan wei</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>jin tian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>you rou</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>chi ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你也不问问我是谁，就这样面对我好嘛？</t>
+    <rPh sb="0" eb="1">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wen wen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhe yang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mian dui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>hao ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒残魂</t>
+    <rPh sb="0" eb="1">
+      <t>ba jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can hun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人家小时候很萌，很萌的，长大了发育好了才这样的。</t>
+    <rPh sb="0" eb="1">
+      <t>ren jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao shi hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hen meng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hen meng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhang da</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>le</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fa yu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>cai zhe yang</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守备猪妖</t>
+    <rPh sb="0" eb="1">
+      <t>shou bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu yao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yao guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埋伏在深处，你是怎么发现的？哎呀！</t>
+    <rPh sb="0" eb="1">
+      <t>mai fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zen me</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fa xian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ai ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守备猪妖</t>
+    <rPh sb="0" eb="1">
+      <t>shou bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这也行？二话怎么说？打呗！</t>
+    <rPh sb="0" eb="1">
+      <t>zhe ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zen me</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>da</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它们都说我很MAN，但是我没学过英文啊！要不你给我讲讲？</t>
+    <rPh sb="0" eb="1">
+      <t>ta men</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dan shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xue guo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ying we</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>a</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yao bu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jiang jiang</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,16 +1164,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,7 +1209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -775,7 +1251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,7 +1286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1025,16 +1501,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1062,21 +1538,22 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="12.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1093,16 +1570,16 @@
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1128,7 +1605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,23 +1622,25 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
@@ -1169,14 +1648,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="E5" s="2">
         <v>5</v>
       </c>
@@ -1191,14 +1672,16 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="E6" s="2">
         <v>6</v>
       </c>
@@ -1207,14 +1690,16 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="E7" s="2">
         <v>12</v>
       </c>
@@ -1229,14 +1714,16 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
@@ -1245,14 +1732,16 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="E9" s="2">
         <v>24</v>
       </c>
@@ -1261,14 +1750,16 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E10" s="2">
         <v>24</v>
       </c>
@@ -1277,14 +1768,16 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E11" s="2">
         <v>30</v>
       </c>
@@ -1299,14 +1792,16 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="E12" s="2">
         <v>25</v>
       </c>
@@ -1315,14 +1810,16 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="E13" s="2">
         <v>26</v>
       </c>
@@ -1331,14 +1828,16 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E14" s="2">
         <v>27</v>
       </c>
@@ -1347,12 +1846,12 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
@@ -1362,12 +1861,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2">
@@ -1383,12 +1882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
@@ -1398,12 +1897,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2">
@@ -1413,12 +1912,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
@@ -1434,12 +1933,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
@@ -1449,12 +1948,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2">
@@ -1464,12 +1963,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
@@ -1479,12 +1978,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>20</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2">
@@ -1494,12 +1993,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>21</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2">
@@ -1510,12 +2009,12 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>22</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2">
@@ -1531,12 +2030,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2">
@@ -1547,12 +2046,12 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2">
         <v>59</v>
@@ -1562,12 +2061,12 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>25</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2">
         <v>60</v>
@@ -1577,12 +2076,12 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2">
@@ -1593,12 +2092,12 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2">
@@ -1615,12 +2114,12 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2">
@@ -1630,12 +2129,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2">
@@ -1645,12 +2144,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="2">
@@ -1666,12 +2165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2">
@@ -1681,12 +2180,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="2">
@@ -1696,12 +2195,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2">
@@ -1717,12 +2216,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2">
@@ -1732,12 +2231,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2">
@@ -1747,12 +2246,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="2">
@@ -1768,12 +2267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2">
@@ -1783,12 +2282,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2">
@@ -1804,12 +2303,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2">
         <v>100</v>
@@ -1824,12 +2323,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2">
         <v>94</v>
@@ -1838,12 +2337,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2">
         <v>95</v>
@@ -1852,12 +2351,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2">
         <v>96</v>
@@ -1866,12 +2365,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <v>43</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E46" s="2">
         <v>101</v>
@@ -1880,12 +2379,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <v>44</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2">
         <v>102</v>
@@ -1894,12 +2393,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>45</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2">
         <v>103</v>
@@ -1914,12 +2413,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>46</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E49" s="2">
         <v>106</v>
@@ -1928,12 +2427,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>47</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E50" s="2">
         <v>107</v>
@@ -1942,12 +2441,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>48</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E51" s="2">
         <v>108</v>
@@ -1956,12 +2455,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>49</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E52" s="2">
         <v>111</v>
@@ -1970,12 +2469,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>50</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E53" s="2">
         <v>112</v>
@@ -1984,12 +2483,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>51</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E54" s="2">
         <v>113</v>
@@ -2004,12 +2503,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>52</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E55" s="2">
         <v>116</v>
@@ -2018,12 +2517,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>53</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E56" s="2">
         <v>117</v>
@@ -2032,12 +2531,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>54</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E57" s="2">
         <v>118</v>
@@ -2052,12 +2551,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>55</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E58" s="2">
         <v>121</v>
@@ -2066,12 +2565,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <v>56</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E59" s="2">
         <v>122</v>
@@ -2080,12 +2579,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>57</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E60" s="2">
         <v>123</v>
@@ -2100,12 +2599,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
         <v>58</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E61" s="2">
         <v>126</v>
@@ -2114,12 +2613,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
         <v>59</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E62" s="2">
         <v>127</v>
@@ -2128,12 +2627,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>60</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E63" s="2">
         <v>128</v>
@@ -2148,12 +2647,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
         <v>61</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E64" s="2">
         <v>131</v>
@@ -2162,12 +2661,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
         <v>62</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E65" s="2">
         <v>132</v>
@@ -2176,12 +2675,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>63</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E66" s="2">
         <v>133</v>
@@ -2196,12 +2695,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
         <v>64</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E67" s="2">
         <v>134</v>
@@ -2210,12 +2709,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
         <v>65</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E68" s="2">
         <v>135</v>
@@ -2224,12 +2723,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <v>66</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E69" s="2">
         <v>142</v>
@@ -2244,12 +2743,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
         <v>67</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E70" s="2">
         <v>136</v>
@@ -2258,12 +2757,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="2">
         <v>68</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E71" s="2">
         <v>137</v>
@@ -2272,12 +2771,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
         <v>69</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E72" s="2">
         <v>138</v>
@@ -2286,12 +2785,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
         <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2">
         <v>143</v>
@@ -2300,12 +2799,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
         <v>71</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E74" s="2">
         <v>144</v>
@@ -2314,12 +2813,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <v>72</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2">
         <v>145</v>
@@ -2334,12 +2833,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
         <v>73</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2">
         <v>147</v>
@@ -2348,12 +2847,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
         <v>74</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2">
         <v>148</v>
@@ -2362,12 +2861,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>75</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2">
         <v>149</v>
@@ -2382,12 +2881,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
         <v>76</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E79" s="2">
         <v>151</v>
@@ -2396,12 +2895,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
         <v>77</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2">
         <v>152</v>
@@ -2410,12 +2909,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <v>78</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2">
         <v>153</v>
@@ -2430,12 +2929,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
         <v>79</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E82" s="2">
         <v>156</v>
@@ -2444,12 +2943,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="2">
         <v>80</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E83" s="2">
         <v>157</v>
@@ -2458,12 +2957,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>81</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E84" s="2">
         <v>158</v>
@@ -2478,12 +2977,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="2">
         <v>82</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E85" s="2">
         <v>168</v>
@@ -2492,12 +2991,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="2">
         <v>83</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2">
         <v>169</v>
@@ -2506,12 +3005,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <v>84</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2">
         <v>170</v>
@@ -2526,12 +3025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="2">
         <v>85</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2">
         <v>173</v>
@@ -2540,12 +3039,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="2">
         <v>86</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2">
         <v>174</v>
@@ -2554,12 +3053,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
         <v>87</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2">
         <v>190</v>
@@ -2568,12 +3067,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
         <v>88</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2">
         <v>180</v>
@@ -2582,12 +3081,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" s="2">
         <v>89</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2">
         <v>181</v>
@@ -2596,12 +3095,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>90</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2">
         <v>191</v>
@@ -2616,12 +3115,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="2">
         <v>91</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2">
         <v>182</v>
@@ -2630,12 +3129,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="2">
         <v>92</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2">
         <v>183</v>
@@ -2644,12 +3143,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
         <v>93</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2">
         <v>184</v>
@@ -2658,12 +3157,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
         <v>94</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2">
         <v>192</v>
@@ -2672,12 +3171,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
         <v>95</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2">
         <v>193</v>
@@ -2686,12 +3185,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>96</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2">
         <v>194</v>
@@ -2706,12 +3205,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
         <v>97</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2">
         <v>197</v>
@@ -2720,12 +3219,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
         <v>98</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2">
         <v>198</v>
@@ -2734,12 +3233,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>99</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2">
         <v>199</v>
@@ -2754,12 +3253,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
         <v>100</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2">
         <v>202</v>
@@ -2768,12 +3267,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="2">
         <v>101</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2">
         <v>203</v>
@@ -2782,12 +3281,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>102</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2">
         <v>204</v>
@@ -2802,12 +3301,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B106" s="2">
         <v>103</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2">
         <v>206</v>
@@ -2816,12 +3315,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" s="2">
         <v>104</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2">
         <v>207</v>
@@ -2830,12 +3329,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>105</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2">
         <v>208</v>
@@ -2850,12 +3349,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B109" s="2">
         <v>106</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2">
         <v>211</v>
@@ -2864,12 +3363,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B110" s="2">
         <v>107</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2">
         <v>212</v>
@@ -2878,12 +3377,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>108</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2">
         <v>213</v>
@@ -2898,12 +3397,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B112" s="2">
         <v>109</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2">
         <v>216</v>
@@ -2912,12 +3411,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="2">
         <v>110</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2">
         <v>217</v>
@@ -2926,12 +3425,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>111</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E114" s="2">
         <v>218</v>
@@ -2946,12 +3445,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="2">
         <v>112</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2">
         <v>221</v>
@@ -2960,12 +3459,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="2">
         <v>113</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2">
         <v>222</v>
@@ -2974,12 +3473,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" s="2">
         <v>114</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2">
         <v>223</v>
@@ -2988,12 +3487,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" s="2">
         <v>115</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2">
         <v>226</v>
@@ -3002,12 +3501,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B119" s="2">
         <v>116</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2">
         <v>227</v>
@@ -3016,12 +3515,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <v>117</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E120" s="2">
         <v>228</v>
@@ -3036,12 +3535,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B121" s="2">
         <v>118</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2">
         <v>231</v>
@@ -3050,12 +3549,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B122" s="2">
         <v>119</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E122" s="2">
         <v>232</v>
@@ -3064,12 +3563,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B123" s="2">
         <v>120</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E123" s="2">
         <v>233</v>
@@ -3078,12 +3577,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B124" s="2">
         <v>121</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E124" s="2">
         <v>234</v>
@@ -3092,12 +3591,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B125" s="2">
         <v>122</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2">
         <v>235</v>
@@ -3106,12 +3605,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B126" s="2">
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E126" s="2">
         <v>244</v>
@@ -3126,12 +3625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B127" s="2">
         <v>124</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E127" s="2">
         <v>236</v>
@@ -3140,12 +3639,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B128" s="2">
         <v>125</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E128" s="2">
         <v>237</v>
@@ -3154,12 +3653,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="2">
         <v>126</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2">
         <v>238</v>
@@ -3168,12 +3667,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" s="2">
         <v>127</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2">
         <v>272</v>
@@ -3182,12 +3681,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="2">
         <v>128</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2">
         <v>273</v>
@@ -3196,12 +3695,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="2">
         <v>129</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2">
         <v>274</v>
@@ -3210,12 +3709,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" s="2">
         <v>130</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2">
         <v>275</v>
@@ -3224,12 +3723,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" s="2">
         <v>131</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2">
         <v>276</v>
@@ -3238,12 +3737,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="2">
         <v>132</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E135" s="2">
         <v>277</v>
@@ -3252,12 +3751,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" s="2">
         <v>133</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2">
         <v>278</v>
@@ -3266,12 +3765,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" s="2">
         <v>134</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2">
         <v>279</v>
@@ -3280,12 +3779,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" s="2">
         <v>135</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E138" s="2">
         <v>280</v>
@@ -3294,12 +3793,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" s="2">
         <v>136</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2">
         <v>281</v>
@@ -3308,12 +3807,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" s="2">
         <v>137</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2">
         <v>282</v>
@@ -3322,12 +3821,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" s="2">
         <v>138</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E141" s="2">
         <v>283</v>
@@ -3336,12 +3835,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="2">
         <v>139</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2">
         <v>284</v>
@@ -3350,12 +3849,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" s="2">
         <v>140</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2">
         <v>285</v>
@@ -3364,12 +3863,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" s="2">
         <v>141</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E144" s="2">
         <v>286</v>
@@ -3378,12 +3877,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" s="2">
         <v>142</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2">
         <v>287</v>
@@ -3392,12 +3891,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" s="2">
         <v>143</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2">
         <v>288</v>
@@ -3406,12 +3905,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" s="2">
         <v>144</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2">
         <v>289</v>
@@ -3420,12 +3919,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" s="2">
         <v>145</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E148" s="2">
         <v>290</v>
@@ -3434,12 +3933,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" s="2">
         <v>146</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2">
         <v>291</v>
@@ -3448,12 +3947,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" s="2">
         <v>147</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E150" s="2">
         <v>292</v>
@@ -3462,12 +3961,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="2">
         <v>148</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E151" s="2">
         <v>293</v>
@@ -3476,12 +3975,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" s="2">
         <v>149</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E152" s="2">
         <v>294</v>
@@ -3490,12 +3989,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" s="2">
         <v>150</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E153" s="2">
         <v>295</v>
@@ -3504,12 +4003,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" s="2">
         <v>151</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E154" s="2">
         <v>296</v>
@@ -3518,12 +4017,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" s="2">
         <v>152</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E155" s="2">
         <v>297</v>
@@ -3532,12 +4031,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="2">
         <v>153</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E156" s="2">
         <v>298</v>
@@ -3546,12 +4045,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" s="2">
         <v>154</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E157" s="2">
         <v>299</v>
@@ -3560,12 +4059,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" s="2">
         <v>155</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E158" s="2">
         <v>300</v>
@@ -3574,12 +4073,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" s="2">
         <v>156</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E159" s="2">
         <v>301</v>
@@ -3588,12 +4087,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="2">
         <v>157</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E160" s="2">
         <v>302</v>
@@ -3602,12 +4101,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="2">
         <v>158</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E161" s="2">
         <v>303</v>
@@ -3616,12 +4115,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" s="2">
         <v>159</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E162" s="2">
         <v>304</v>

--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -576,49 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一个小妖跳了出来，不是站着了还以为是野味呢？</t>
-    <rPh sb="0" eb="1">
-      <t>yi ge</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao yao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tiao le</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chu lai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhuo</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>le</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>hai yi wei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ye wei</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ne</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洞口小妖</t>
     <rPh sb="0" eb="1">
       <t>dong kou</t>
@@ -629,43 +586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小妖好像饿了，你要不要把自己给他吃呢？</t>
-    <rPh sb="0" eb="1">
-      <t>xiao yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hao xiang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>e le</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ni</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yao bu yao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ba</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>z ji</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ta</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>chi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ne</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花痴</t>
     <rPh sb="0" eb="1">
       <t>hua chi</t>
@@ -673,86 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曾经我也是痴情的种子啊，可是那年闹洪灾的时候淹死了。</t>
-    <rPh sb="0" eb="1">
-      <t>ceng jing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ye shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chi qing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhong zi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>a</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ke shi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>na nian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>nao</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>hong zai</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>de</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>shi hou</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>yan si</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>le</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路哪么宽为啥呢？花痴也是痴嘛。</t>
-    <rPh sb="0" eb="1">
-      <t>lu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>na me</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>kuan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wei sha</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ne</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hua chi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ye shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>chi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ma</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杂役</t>
     <rPh sb="0" eb="1">
       <t>za yi</t>
@@ -760,61 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>它们说打杂的都是领导，一不小心我都做了上百年的领导啦。</t>
-    <rPh sb="0" eb="1">
-      <t>ta men</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shuo</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da za</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>dou shi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ling dao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xiao xin</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>dou</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zuo le</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>shang bai</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>nian</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>de</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ling dao</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>la</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杂役</t>
     <rPh sb="0" eb="1">
       <t>za y</t>
@@ -822,89 +607,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任劳任怨才是出路，打杂的都是为了吃饭啊。敢为！今天有肉吃吗？</t>
-    <rPh sb="0" eb="1">
-      <t>ren lao ren yuan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cai shi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chu lu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>da za</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>dou shi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>wei le</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>chi fan</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>a</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>gan wei</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>jin tian</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>you rou</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>chi ma</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你也不问问我是谁，就这样面对我好嘛？</t>
-    <rPh sb="0" eb="1">
-      <t>ni</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wen wen</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shui</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jiu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhe yang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>mian dui</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>hao ma</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>八戒残魂</t>
     <rPh sb="0" eb="1">
       <t>ba jie</t>
@@ -1076,6 +778,337 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>jiang jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个小妖跳了出来，不是站着看着你了还以为是野味呢？</t>
+    <rPh sb="0" eb="1">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao yao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao le</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu lai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kan zhuo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhuo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>le</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hai yi wei</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ye wei</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打跑了小的，又跑了个出来，从嘴边的口水看来是饿了。你要不要把自己给他吃呢？</t>
+    <rPh sb="0" eb="1">
+      <t>da</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>le</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>le</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chu lai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zui bian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kou shui</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>kan lai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>e</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>le</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yao bu yao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>z ji</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾经的痴情种，现在的采花贼，想想就想上去揍一顿！</t>
+    <rPh sb="0" eb="1">
+      <t>ceng jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chi qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian zai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cai hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xiang xiang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jiu xiang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shang qu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zou yi dun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不服打才是他的人生格言，还是用拳头来比试吧！</t>
+    <rPh sb="0" eb="1">
+      <t>bu fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cai shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren sheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ge yan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hai shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>quan tou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bi shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个打杂的，总以为自己是领导，不打他都说不过去！</t>
+    <rPh sb="0" eb="1">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da za</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>za</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ling dao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>da</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bu guo qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面的缺失倒下了，这次是新的。</t>
+    <rPh sb="0" eb="1">
+      <t>qian mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>que shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao xia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>le</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhe ci</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又是新的，打起来有点累了。</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi lai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you dian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>le</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1538,7 +1571,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1636,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1653,10 +1686,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
@@ -1677,10 +1710,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -1695,10 +1728,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E7" s="2">
         <v>12</v>
@@ -1719,10 +1752,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
@@ -1737,10 +1770,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E9" s="2">
         <v>24</v>
@@ -1755,10 +1788,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E10" s="2">
         <v>24</v>
@@ -1773,10 +1806,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E11" s="2">
         <v>30</v>
@@ -1797,10 +1830,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E12" s="2">
         <v>25</v>
@@ -1815,10 +1848,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E13" s="2">
         <v>26</v>
@@ -1833,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E14" s="2">
         <v>27</v>

--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -834,88 +834,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打跑了小的，又跑了个出来，从嘴边的口水看来是饿了。你要不要把自己给他吃呢？</t>
-    <rPh sb="0" eb="1">
-      <t>da</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>pao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>le</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xiao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>you</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>pao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>le</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>chu lai</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zui bian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>de</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>kou shui</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>kan lai</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>e</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>le</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ni</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>yao bu yao</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ba</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>z ji</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ta</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>chi</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ne</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曾经的痴情种，现在的采花贼，想想就想上去揍一顿！</t>
     <rPh sb="0" eb="1">
       <t>ceng jing</t>
@@ -959,49 +877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不服打才是他的人生格言，还是用拳头来比试吧！</t>
-    <rPh sb="0" eb="1">
-      <t>bu fu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>da</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cai shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ta</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ren sheng</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ge yan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>hai shi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>quan tou</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>lai</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>bi shi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ba</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一个打杂的，总以为自己是领导，不打他都说不过去！</t>
     <rPh sb="0" eb="1">
       <t>yi ge</t>
@@ -1108,6 +983,122 @@
       <t>lei</t>
     </rPh>
     <rPh sb="11" eb="12">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打跑了小的，又跑了个出来，从嘴边的口水看来是饿了。</t>
+    <rPh sb="0" eb="1">
+      <t>da</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>le</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>le</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chu lai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zui bian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kou shui</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>kan lai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>e</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个猪头痴情的看着你，手里还拿一支玫瑰。看样子是喜欢上你了。</t>
+    <rPh sb="0" eb="1">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu tou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chi qing mo mo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shou li</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>na</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mei gui</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>kan yang zi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xi huan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shang ni</t>
+    </rPh>
+    <rPh sb="28" eb="29">
       <t>le</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1571,7 +1562,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1689,7 +1680,7 @@
         <v>170</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
@@ -1713,7 +1704,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -1731,7 +1722,7 @@
         <v>171</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E7" s="2">
         <v>12</v>
@@ -1755,7 +1746,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
@@ -1773,7 +1764,7 @@
         <v>173</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" s="2">
         <v>24</v>
@@ -1791,7 +1782,7 @@
         <v>173</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E10" s="2">
         <v>24</v>

--- a/ExcelConfig/战斗表.xlsx
+++ b/ExcelConfig/战斗表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiexiongping/Documents/github/workdir/ExcelConfig/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="460" windowWidth="17740" windowHeight="14540" activeTab="1"/>
+    <workbookView xWindow="10020" yWindow="-90" windowWidth="17745" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="299">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,470 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄风岭-固定战斗1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗1.2</t>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗2.2</t>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗2.3</t>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗3.2</t>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗3.3</t>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗4.2</t>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗4.3</t>
-  </si>
-  <si>
-    <t>黄风岭-随机战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄风岭-随机战斗2</t>
-  </si>
-  <si>
-    <t>黄风岭-随机战斗3</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗1.2</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗2.2</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗2.3</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗3.1</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗3.2</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗3.3</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗4.1</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗4.2</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗4.3</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗5.1</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗5.2</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗5.3</t>
-  </si>
-  <si>
-    <t>白骨洞-随机战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨洞-随机战斗2</t>
-  </si>
-  <si>
-    <t>白骨洞-随机战斗3</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波月洞-固定战斗1.2</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗1.3</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗2.1</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗2.2</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗2.3</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗3.1</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗3.2</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗3.3</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗4.1</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗4.2</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗4.3</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗5.1</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗5.2</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗5.3</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗6.1</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗6.2</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗6.3</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗7.1</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗7.2</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗7.3</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗8.1</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗8.2</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗8.3</t>
-  </si>
-  <si>
-    <t>波月洞-随机战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波月洞-随机战斗2</t>
-  </si>
-  <si>
-    <t>波月洞-随机战斗3</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗1.2</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗1.3</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗2.1</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗2.2</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗2.3</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗3.1</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗3.2</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗3.3</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗4.1</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗4.2</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗4.3</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗5.1</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗5.2</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗5.3</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗6.1</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗6.2</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗6.3</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗7.1</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗7.2</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗7.3</t>
-  </si>
-  <si>
-    <t>莲花洞-随机战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲花洞-随机战斗2</t>
-  </si>
-  <si>
-    <t>莲花洞-随机战斗3</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火云洞-固定战斗1.2</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗1.3</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗2.1</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗2.2</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗2.3</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗3.1</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗3.2</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗3.3</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗4.1</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗4.2</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗4.3</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗5.1</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗5.2</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗5.3</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗6.1</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗6.2</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗6.3</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗7.1</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗7.2</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗7.3</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗8.1</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗8.2</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗8.3</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗9.1</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗9.2</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗9.3</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗10.1</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗10.2</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗10.3</t>
-  </si>
-  <si>
-    <t>火云洞-随机战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火云洞-随机战斗2</t>
-  </si>
-  <si>
-    <t>火云洞-随机战斗3</t>
-  </si>
-  <si>
-    <t>云栈洞jjc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云栈洞jjc2</t>
-  </si>
-  <si>
-    <t>云栈洞jjc3</t>
-  </si>
-  <si>
-    <t>云栈洞jjc4</t>
-  </si>
-  <si>
-    <t>云栈洞jjc5</t>
-  </si>
-  <si>
-    <t>黄风岭jjc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄风岭jjc2</t>
-  </si>
-  <si>
-    <t>黄风岭jjc3</t>
-  </si>
-  <si>
-    <t>黄风岭jjc4</t>
-  </si>
-  <si>
-    <t>黄风岭jjc5</t>
-  </si>
-  <si>
-    <t>白骨洞jjc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨洞jjc2</t>
-  </si>
-  <si>
-    <t>白骨洞jjc3</t>
-  </si>
-  <si>
-    <t>白骨洞jjc4</t>
-  </si>
-  <si>
-    <t>白骨洞jjc5</t>
-  </si>
-  <si>
-    <t>波月洞jjc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波月洞jjc2</t>
-  </si>
-  <si>
-    <t>波月洞jjc3</t>
-  </si>
-  <si>
-    <t>波月洞jjc4</t>
-  </si>
-  <si>
-    <t>波月洞jjc5</t>
-  </si>
-  <si>
-    <t>莲花洞jjc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲花洞jjc2</t>
-  </si>
-  <si>
-    <t>莲花洞jjc3</t>
-  </si>
-  <si>
-    <t>莲花洞jjc4</t>
-  </si>
-  <si>
-    <t>莲花洞jjc5</t>
-  </si>
-  <si>
-    <t>莲花洞jjc6</t>
-  </si>
-  <si>
-    <t>火云洞jjc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火云洞jjc2</t>
-  </si>
-  <si>
-    <t>火云洞jjc3</t>
-  </si>
-  <si>
-    <t>火云洞jjc4</t>
-  </si>
-  <si>
-    <t>火云洞jjc5</t>
-  </si>
-  <si>
-    <t>火云洞jjc6</t>
-  </si>
-  <si>
-    <t>火云洞jjc7</t>
-  </si>
-  <si>
     <t>RewardGold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,531 +107,1037 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洞口小妖</t>
-    <rPh sb="0" eb="1">
-      <t>dong kou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao yao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花痴</t>
-    <rPh sb="0" eb="1">
-      <t>hua chi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂役</t>
-    <rPh sb="0" eb="1">
-      <t>za yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂役</t>
-    <rPh sb="0" eb="1">
-      <t>za y</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八戒残魂</t>
-    <rPh sb="0" eb="1">
-      <t>ba jie</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>can hun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人家小时候很萌，很萌的，长大了发育好了才这样的。</t>
-    <rPh sb="0" eb="1">
-      <t>ren jia</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao shi hou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hen meng</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hen meng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhang da</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>le</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>fa yu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>cai zhe yang</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守备猪妖</t>
-    <rPh sb="0" eb="1">
-      <t>shou bei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu yao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yao guai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>埋伏在深处，你是怎么发现的？哎呀！</t>
-    <rPh sb="0" eb="1">
-      <t>mai fu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shen chu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ni</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zen me</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fa xian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ai ya</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守备猪妖</t>
-    <rPh sb="0" eb="1">
-      <t>shou bei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu yao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这也行？二话怎么说？打呗！</t>
-    <rPh sb="0" eb="1">
-      <t>zhe ye</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>er hua</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zen me</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shuo</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>da</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它们都说我很MAN，但是我没学过英文啊！要不你给我讲讲？</t>
-    <rPh sb="0" eb="1">
-      <t>ta men</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shuo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hen</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>dan shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>mei</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xue guo</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ying we</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>a</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>yao bu</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ni</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>jiang jiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个小妖跳了出来，不是站着看着你了还以为是野味呢？</t>
-    <rPh sb="0" eb="1">
-      <t>yi ge</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao yao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tiao le</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chu lai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhuo</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>kan zhuo</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zhuo</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ni</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>le</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>hai yi wei</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ye wei</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ne</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾经的痴情种，现在的采花贼，想想就想上去揍一顿！</t>
-    <rPh sb="0" eb="1">
-      <t>ceng jing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>de</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chi qing</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xian zai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>cai hua</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zei</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xiang xiang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>xiang</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>jiu xiang</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>shang qu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>zou yi dun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个打杂的，总以为自己是领导，不打他都说不过去！</t>
-    <rPh sb="0" eb="1">
-      <t>yi ge</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>da za</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>za</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yi wei</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zi ji</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ling dao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>da</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ta</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>dou</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>shuo</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>bu guo qu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前面的缺失倒下了，这次是新的。</t>
-    <rPh sb="0" eb="1">
-      <t>qian mian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>de</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>que shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>dao xia</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>le</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhe ci</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又是新的，打起来有点累了。</t>
-    <rPh sb="0" eb="1">
-      <t>you</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>da</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>qi lai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>you dian</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>le</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打跑了小的，又跑了个出来，从嘴边的口水看来是饿了。</t>
-    <rPh sb="0" eb="1">
-      <t>da</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>pao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>le</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xiao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>you</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>pao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>le</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>chu lai</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zui bian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>de</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>kou shui</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>kan lai</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>e</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>le</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个猪头痴情的看着你，手里还拿一支玫瑰。看样子是喜欢上你了。</t>
-    <rPh sb="0" eb="1">
-      <t>yi ge</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu tou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chi qing mo mo</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhuo</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ni</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shou li</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>hai</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>na</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yi ge</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>mei gui</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>kan yang zi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>xi huan</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>shang ni</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>le</t>
-    </rPh>
+    <t>小试牛刀Ⅰ</t>
+  </si>
+  <si>
+    <t>小试牛刀Ⅱ</t>
+  </si>
+  <si>
+    <t>禁止闯入Ⅰ</t>
+  </si>
+  <si>
+    <t>禁止闯入Ⅱ</t>
+  </si>
+  <si>
+    <t>七零八落Ⅰ</t>
+  </si>
+  <si>
+    <t>七零八落Ⅱ</t>
+  </si>
+  <si>
+    <t>八戒残魂Ⅰ</t>
+  </si>
+  <si>
+    <t>八戒残魂Ⅱ</t>
+  </si>
+  <si>
+    <t>暗哨Ⅰ</t>
+  </si>
+  <si>
+    <t>暗哨Ⅱ</t>
+  </si>
+  <si>
+    <t>暗哨Ⅲ</t>
+  </si>
+  <si>
+    <t>鼠患Ⅰ</t>
+  </si>
+  <si>
+    <t>鼠患Ⅱ</t>
+  </si>
+  <si>
+    <t>占山占道Ⅰ</t>
+  </si>
+  <si>
+    <t>占山占道Ⅱ</t>
+  </si>
+  <si>
+    <t>占山占道Ⅲ</t>
+  </si>
+  <si>
+    <t>清除鼠患Ⅰ</t>
+  </si>
+  <si>
+    <t>清除鼠患Ⅱ</t>
+  </si>
+  <si>
+    <t>清除鼠患Ⅲ</t>
+  </si>
+  <si>
+    <t>黄风岭主Ⅰ</t>
+  </si>
+  <si>
+    <t>黄风岭主Ⅱ</t>
+  </si>
+  <si>
+    <t>黄风岭主Ⅲ</t>
+  </si>
+  <si>
+    <t>流沙陷阱Ⅰ</t>
+  </si>
+  <si>
+    <t>流沙陷阱Ⅱ</t>
+  </si>
+  <si>
+    <t>流沙陷阱Ⅲ</t>
+  </si>
+  <si>
+    <t>一劫生怨Ⅰ</t>
+  </si>
+  <si>
+    <t>一劫生怨Ⅱ</t>
+  </si>
+  <si>
+    <t>二劫离间Ⅰ</t>
+  </si>
+  <si>
+    <t>二劫离间Ⅱ</t>
+  </si>
+  <si>
+    <t>二劫离间Ⅲ</t>
+  </si>
+  <si>
+    <t>三劫师徒散Ⅰ</t>
+  </si>
+  <si>
+    <t>三劫师徒散Ⅱ</t>
+  </si>
+  <si>
+    <t>三劫师徒散Ⅲ</t>
+  </si>
+  <si>
+    <t>四劫身犯险Ⅰ</t>
+  </si>
+  <si>
+    <t>四劫身犯险Ⅱ</t>
+  </si>
+  <si>
+    <t>四劫身犯险Ⅲ</t>
+  </si>
+  <si>
+    <t>怒捶白骨洞Ⅰ</t>
+  </si>
+  <si>
+    <t>怒捶白骨洞Ⅱ</t>
+  </si>
+  <si>
+    <t>白骨暗哨Ⅰ</t>
+  </si>
+  <si>
+    <t>白骨暗哨Ⅱ</t>
+  </si>
+  <si>
+    <t>贪狼洞Ⅰ</t>
+  </si>
+  <si>
+    <t>贪狼洞Ⅱ</t>
+  </si>
+  <si>
+    <t>贪狼洞Ⅲ</t>
+  </si>
+  <si>
+    <t>落魄星辰Ⅰ</t>
+  </si>
+  <si>
+    <t>落魄星辰Ⅱ</t>
+  </si>
+  <si>
+    <t>落魄星辰Ⅲ</t>
+  </si>
+  <si>
+    <t>大闹洞府Ⅰ</t>
+  </si>
+  <si>
+    <t>大闹洞府Ⅱ</t>
+  </si>
+  <si>
+    <t>大闹洞府Ⅲ</t>
+  </si>
+  <si>
+    <t>狼牙护卫Ⅰ</t>
+  </si>
+  <si>
+    <t>狼牙护卫Ⅱ</t>
+  </si>
+  <si>
+    <t>狼牙护卫Ⅲ</t>
+  </si>
+  <si>
+    <t>利爪贪狼Ⅰ</t>
+  </si>
+  <si>
+    <t>利爪贪狼Ⅱ</t>
+  </si>
+  <si>
+    <t>利爪贪狼Ⅲ</t>
+  </si>
+  <si>
+    <t>冲突不断Ⅰ</t>
+  </si>
+  <si>
+    <t>冲突不断Ⅱ</t>
+  </si>
+  <si>
+    <t>冲突不断Ⅲ</t>
+  </si>
+  <si>
+    <t>清扫障碍Ⅰ</t>
+  </si>
+  <si>
+    <t>清扫障碍Ⅱ</t>
+  </si>
+  <si>
+    <t>清扫障碍Ⅲ</t>
+  </si>
+  <si>
+    <t>贪狼劫Ⅰ</t>
+  </si>
+  <si>
+    <t>贪狼劫Ⅱ</t>
+  </si>
+  <si>
+    <t>贪狼劫Ⅲ</t>
+  </si>
+  <si>
+    <t>狼牙兵Ⅰ</t>
+  </si>
+  <si>
+    <t>狼牙兵Ⅱ</t>
+  </si>
+  <si>
+    <t>狼牙兵Ⅲ</t>
+  </si>
+  <si>
+    <t>独角卫兵Ⅰ</t>
+  </si>
+  <si>
+    <t>独角卫兵Ⅱ</t>
+  </si>
+  <si>
+    <t>独角卫兵Ⅲ</t>
+  </si>
+  <si>
+    <t>全是独角Ⅰ</t>
+  </si>
+  <si>
+    <t>全是独角Ⅱ</t>
+  </si>
+  <si>
+    <t>全是独角Ⅲ</t>
+  </si>
+  <si>
+    <t>战斗继续Ⅰ</t>
+  </si>
+  <si>
+    <t>战斗继续Ⅱ</t>
+  </si>
+  <si>
+    <t>战斗继续Ⅲ</t>
+  </si>
+  <si>
+    <t>独角大本营Ⅰ</t>
+  </si>
+  <si>
+    <t>独角大本营Ⅱ</t>
+  </si>
+  <si>
+    <t>独角大本营Ⅲ</t>
+  </si>
+  <si>
+    <t>取兵器Ⅰ</t>
+  </si>
+  <si>
+    <t>取兵器Ⅱ</t>
+  </si>
+  <si>
+    <t>取兵器Ⅲ</t>
+  </si>
+  <si>
+    <t>银角大王Ⅰ</t>
+  </si>
+  <si>
+    <t>银角大王Ⅱ</t>
+  </si>
+  <si>
+    <t>银角大王Ⅲ</t>
+  </si>
+  <si>
+    <t>金角大王Ⅰ</t>
+  </si>
+  <si>
+    <t>金角大王Ⅱ</t>
+  </si>
+  <si>
+    <t>金角大王Ⅲ</t>
+  </si>
+  <si>
+    <t>独角护卫Ⅰ</t>
+  </si>
+  <si>
+    <t>独角护卫Ⅱ</t>
+  </si>
+  <si>
+    <t>独角护卫Ⅲ</t>
+  </si>
+  <si>
+    <t>看门小童Ⅰ</t>
+  </si>
+  <si>
+    <t>看门小童Ⅱ</t>
+  </si>
+  <si>
+    <t>看门小童Ⅲ</t>
+  </si>
+  <si>
+    <t>巡逻小妖Ⅰ</t>
+  </si>
+  <si>
+    <t>巡逻小妖Ⅱ</t>
+  </si>
+  <si>
+    <t>巡逻小妖Ⅲ</t>
+  </si>
+  <si>
+    <t>哭闹娃娃Ⅰ</t>
+  </si>
+  <si>
+    <t>哭闹娃娃Ⅱ</t>
+  </si>
+  <si>
+    <t>哭闹娃娃Ⅲ</t>
+  </si>
+  <si>
+    <t>乳牙卫兵Ⅰ</t>
+  </si>
+  <si>
+    <t>乳牙卫兵Ⅱ</t>
+  </si>
+  <si>
+    <t>乳牙卫兵Ⅲ</t>
+  </si>
+  <si>
+    <t>莫欺人小Ⅰ</t>
+  </si>
+  <si>
+    <t>莫欺人小Ⅱ</t>
+  </si>
+  <si>
+    <t>莫欺人小Ⅲ</t>
+  </si>
+  <si>
+    <t>青眼小猪Ⅰ</t>
+  </si>
+  <si>
+    <t>青眼小猪Ⅱ</t>
+  </si>
+  <si>
+    <t>青眼小猪Ⅲ</t>
+  </si>
+  <si>
+    <t>火云洞窟Ⅰ</t>
+  </si>
+  <si>
+    <t>火云洞窟Ⅱ</t>
+  </si>
+  <si>
+    <t>火云洞窟Ⅲ</t>
+  </si>
+  <si>
+    <t>嬉闹小猴Ⅰ</t>
+  </si>
+  <si>
+    <t>嬉闹小猴Ⅱ</t>
+  </si>
+  <si>
+    <t>嬉闹小猴Ⅲ</t>
+  </si>
+  <si>
+    <t>以大欺小Ⅰ</t>
+  </si>
+  <si>
+    <t>以大欺小Ⅱ</t>
+  </si>
+  <si>
+    <t>以大欺小Ⅲ</t>
+  </si>
+  <si>
+    <t>孩子头Ⅰ</t>
+  </si>
+  <si>
+    <t>孩子头Ⅱ</t>
+  </si>
+  <si>
+    <t>孩子头Ⅲ</t>
+  </si>
+  <si>
+    <t>童子军Ⅰ</t>
+  </si>
+  <si>
+    <t>童子军Ⅱ</t>
+  </si>
+  <si>
+    <t>童子军Ⅲ</t>
+  </si>
+  <si>
+    <t>试炼-云栈洞Ⅰ</t>
+  </si>
+  <si>
+    <t>试炼-云栈洞Ⅱ</t>
+  </si>
+  <si>
+    <t>试炼-云栈洞Ⅲ</t>
+  </si>
+  <si>
+    <t>试炼-云栈洞Ⅳ</t>
+  </si>
+  <si>
+    <t>试炼-云栈洞Ⅴ</t>
+  </si>
+  <si>
+    <t>试炼-黄风岭Ⅰ</t>
+  </si>
+  <si>
+    <t>试炼-黄风岭Ⅱ</t>
+  </si>
+  <si>
+    <t>试炼-黄风岭Ⅲ</t>
+  </si>
+  <si>
+    <t>试炼-黄风岭Ⅳ</t>
+  </si>
+  <si>
+    <t>试炼-黄风岭Ⅴ</t>
+  </si>
+  <si>
+    <t>试炼-白骨洞Ⅰ</t>
+  </si>
+  <si>
+    <t>试炼-白骨洞Ⅱ</t>
+  </si>
+  <si>
+    <t>试炼-白骨洞Ⅲ</t>
+  </si>
+  <si>
+    <t>试炼-白骨洞Ⅳ</t>
+  </si>
+  <si>
+    <t>试炼-白骨洞Ⅴ</t>
+  </si>
+  <si>
+    <t>试炼-波月洞Ⅰ</t>
+  </si>
+  <si>
+    <t>试炼-波月洞Ⅱ</t>
+  </si>
+  <si>
+    <t>试炼-波月洞Ⅲ</t>
+  </si>
+  <si>
+    <t>试炼-波月洞Ⅳ</t>
+  </si>
+  <si>
+    <t>试炼-波月洞Ⅴ</t>
+  </si>
+  <si>
+    <t>试炼-莲花洞Ⅰ</t>
+  </si>
+  <si>
+    <t>试炼-莲花洞Ⅱ</t>
+  </si>
+  <si>
+    <t>试炼-莲花洞Ⅲ</t>
+  </si>
+  <si>
+    <t>试炼-莲花洞Ⅳ</t>
+  </si>
+  <si>
+    <t>试炼-莲花洞Ⅴ</t>
+  </si>
+  <si>
+    <t>试炼-莲花洞Ⅵ</t>
+  </si>
+  <si>
+    <t>试炼-火云洞Ⅰ</t>
+  </si>
+  <si>
+    <t>试炼-火云洞Ⅱ</t>
+  </si>
+  <si>
+    <t>试炼-火云洞Ⅲ</t>
+  </si>
+  <si>
+    <t>试炼-火云洞Ⅳ</t>
+  </si>
+  <si>
+    <t>试炼-火云洞Ⅴ</t>
+  </si>
+  <si>
+    <t>试炼-火云洞Ⅵ</t>
+  </si>
+  <si>
+    <t>试炼-火云洞Ⅶ</t>
+  </si>
+  <si>
+    <t>瞅啥瞅，再瞅也给你来黑眼圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还瞅，老子不发威你当我病猪啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱紫吧，你们把警报撤了，我当没看见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过分了啊，警报这么响我怎么睁一只眼闭一只眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒说，能吃是实力的一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师兄说，毛多也是本事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙马说，饲料永远都不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙师弟说，行李太多，人工费好贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅说，阿弥陀佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自从老大去西天了，我们的日子越来越难过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你长得还挺像那个牵走了老大的猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你识相最好走开，我可是有后台的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都说了有后台，就问你怕不怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打枪，悄悄的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鼠一窝一窝，老大说这样有利人口福利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进来就打打杀杀的，都是文明人，来，我给你跪了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这山头是我们的，交钱，没钱刷卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你连自己密码都不记得还往西天跑？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不我给你钱，你还是走吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎，你这样杀来杀去我们就要进入保护名册了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然说我们繁殖能力强，但是也太坎坷了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我选择尊严的死去，来吧，给我个痛快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样，你打轻点，我去老大那领盒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下手这么重，盒饭还怎么吃！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们就这么清了我的徒子徒孙，以后计划生育怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖下来，喂老鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们的颜值简直突破天际的。。丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们是不是劫持了那个和尚？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物园现在都派人出来干副业了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那匹马品种不错啊，拉出来溜溜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我老人家需要个挑担的，工钱管够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很丑可是你很温柔，形容的谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们需要照照镜子么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看，还是那猴子有自知之明，自己就走了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好了，就剩下大师了，我们聊聊普度众生的事儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你都不知道先有鸡还是先有蛋，你怎么敢说理解众生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就知道，一切学术的前提都是不要费斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们这群卫道士，不要费斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假科学，假学术，老娘跟你们拼了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨暗哨Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒捶白骨洞Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们只是想看看你们有多能耐，太能耐了也是孤独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不贪怎么行，不贪能致富么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有钱任性，没钱认命，我就认命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们就喜欢看着你们这样没羞没臊的胡闹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒股票都赔了，你们现在是来上门催债的么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没钱，你们看上什么搬什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还真搬啊，别的不要了，把无线给我留下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们这么吵吵闹闹的，吓到花花草草怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就算没吓到花花草草，吓到隔壁老王怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就算没吓到隔壁老王，吓到拍照的怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期拆迁，车马绕行，对，就说你的马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子，你再牵着马靠近我们就不客气了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行，关门，放狗！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小的们都被干掉了，当大哥的也得出来露露脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呦，大爷，有话好好说，先把棍子放下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疼疼疼！我不当大哥好多年了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼花了？猪都会直立行走了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼花了？猴子都穿袈裟了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼花了？马都会开口说话了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼牙榜上我们都是排第一的，对，从后面数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们再前进我们就喊人了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们真的喊人了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛祖，求你收了神猴吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大哥，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有话好好好好说</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒下留情，我们这就去投胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么，你们把我的小弟都吓的去投胎了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么，没见过这么帅的妖？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅是天生的，嫉妒也没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别打脸！打人不打脸！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得瑟的都是打杂的，我们从来不得瑟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没见过这么独领风骚的发型么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大王，王上，陛下，叫啥合适？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好久没见过这种头上光秃秃的东西了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么说打就打，你们还有点职业道德么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说好，不许打脸，不许掰弯！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没诚信，都弯了，弯了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们这是自寻死路！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我顶你们，求放过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么英俊善良正直的妖，你们舍得打么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿大王的宝贝换我的命，可以么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交，说好，宝贝到手，放我走！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没诚信，掰弯了还打脸！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给糖，不给糖就捣乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老大，你再不来尿布都没了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老大，你再不来零食都没了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们没看见那写的是儿童用品么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有种蹲下来让我打！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有种把头低下来让我看到你！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有种等我长那么高再来和我打！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没长毛的娃娃一对对，我来错地方了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是我，对，就是我，不一样的花火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是小孩子，下手那么重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的世界你不懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫二大王，现在黄金比银饰值钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我现在出场费和大哥一样，我要让你们知道厉害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从成色上来讲，还是黄色比较合心意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好歹我们也是在九州地界上，白脸始终不合适</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我其实也怀疑他不是我亲弟弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊？你说什么？太高了，听不清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊？你听不懂我说什么？你多大？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊？好难沟通，我要喝奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就是来这客串的，求放过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们欺人太甚，上次的医药费都还不够呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定是出门没看黄历碰上你们这么多次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里这么热，穿那么多会长痱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们是来送吃的还是送喝的，还是，啊，不许打屁股！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招惹谁不好，招惹一帮疯子，就会打屁股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们不许再靠近了，再靠近我哭给你们看！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我真的会哭的，我是认真的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不要用臭袜子，呜呜呜呜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我真会咬人的，真的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到你们的大黄牙就觉得世界生无可恋了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎，你们就没后悔过长大么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们这么大的时候有我们这么可爱么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可理喻，为什么我们说话你们听不懂呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小孩子说话，大人别搭茬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放开我，再不放开就尿了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们知道一块尿不湿多贵么！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有这件衣服！洗干净要好多钱！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1525,16 +1562,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1556,28 +1593,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="12.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1594,16 +1631,16 @@
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,24 +1683,25 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1672,15 +1710,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
@@ -1694,17 +1733,17 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -1712,17 +1751,17 @@
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E7" s="2">
         <v>12</v>
@@ -1736,17 +1775,17 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
@@ -1754,17 +1793,17 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2">
         <v>24</v>
@@ -1772,17 +1811,17 @@
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2">
         <v>24</v>
@@ -1790,17 +1829,17 @@
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E11" s="2">
         <v>30</v>
@@ -1814,17 +1853,17 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2">
         <v>25</v>
@@ -1832,17 +1871,17 @@
       <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2">
         <v>26</v>
@@ -1850,17 +1889,17 @@
       <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E14" s="2">
         <v>27</v>
@@ -1868,16 +1907,18 @@
       <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="E15" s="2">
         <v>31</v>
       </c>
@@ -1885,14 +1926,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="E16" s="2">
         <v>32</v>
       </c>
@@ -1906,14 +1950,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="E17" s="2">
         <v>41</v>
       </c>
@@ -1921,14 +1968,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="E18" s="2">
         <v>42</v>
       </c>
@@ -1936,14 +1986,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="E19" s="2">
         <v>43</v>
       </c>
@@ -1957,14 +2010,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="E20" s="2">
         <v>51</v>
       </c>
@@ -1972,14 +2028,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="E21" s="2">
         <v>52</v>
       </c>
@@ -1987,14 +2046,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="E22" s="2">
         <v>53</v>
       </c>
@@ -2002,14 +2064,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="E23" s="2">
         <v>55</v>
       </c>
@@ -2017,14 +2082,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="E24" s="2">
         <v>56</v>
       </c>
@@ -2033,14 +2101,17 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="E25" s="2">
         <v>63</v>
       </c>
@@ -2054,14 +2125,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="E26" s="2">
         <v>58</v>
       </c>
@@ -2070,12 +2144,16 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>29</v>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="E27" s="2">
         <v>59</v>
@@ -2085,12 +2163,16 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>30</v>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="E28" s="2">
         <v>60</v>
@@ -2100,14 +2182,17 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
       <c r="B29" s="2">
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="E29" s="2">
         <v>64</v>
       </c>
@@ -2116,14 +2201,17 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
       <c r="B30" s="2">
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="E30" s="2">
         <v>65</v>
       </c>
@@ -2138,14 +2226,17 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
       <c r="B31" s="2">
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="E31" s="2">
         <v>72</v>
       </c>
@@ -2153,14 +2244,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
       <c r="B32" s="2">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="E32" s="2">
         <v>73</v>
       </c>
@@ -2168,14 +2262,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
       <c r="B33" s="2">
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="E33" s="2">
         <v>74</v>
       </c>
@@ -2189,14 +2286,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
       <c r="B34" s="2">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="E34" s="2">
         <v>80</v>
       </c>
@@ -2204,14 +2304,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
       <c r="B35" s="2">
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="E35" s="2">
         <v>81</v>
       </c>
@@ -2219,14 +2322,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
       <c r="B36" s="2">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="E36" s="2">
         <v>82</v>
       </c>
@@ -2240,14 +2346,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
       <c r="B37" s="2">
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="E37" s="2">
         <v>86</v>
       </c>
@@ -2255,14 +2364,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
       <c r="B38" s="2">
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="E38" s="2">
         <v>87</v>
       </c>
@@ -2270,14 +2382,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
       <c r="B39" s="2">
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="E39" s="2">
         <v>88</v>
       </c>
@@ -2291,14 +2406,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
       <c r="B40" s="2">
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="E40" s="2">
         <v>90</v>
       </c>
@@ -2306,14 +2424,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
       <c r="B41" s="2">
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="E41" s="2">
         <v>91</v>
       </c>
@@ -2327,12 +2448,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
       <c r="B42" s="2">
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>44</v>
+        <v>219</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="E42" s="2">
         <v>100</v>
@@ -2347,12 +2472,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
       <c r="B43" s="2">
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E43" s="2">
         <v>94</v>
@@ -2361,12 +2490,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
       <c r="B44" s="2">
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E44" s="2">
         <v>95</v>
@@ -2375,12 +2508,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
       <c r="B45" s="2">
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>218</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E45" s="2">
         <v>96</v>
@@ -2389,12 +2526,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
       <c r="B46" s="2">
         <v>43</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>48</v>
+      <c r="C46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="E46" s="2">
         <v>101</v>
@@ -2403,12 +2544,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
       <c r="B47" s="2">
         <v>44</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>49</v>
+      <c r="C47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="E47" s="2">
         <v>102</v>
@@ -2417,12 +2562,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
       <c r="B48" s="2">
         <v>45</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>50</v>
+      <c r="C48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="E48" s="2">
         <v>103</v>
@@ -2437,12 +2586,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
       <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>51</v>
+      <c r="C49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="E49" s="2">
         <v>106</v>
@@ -2451,12 +2604,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
       <c r="B50" s="2">
         <v>47</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>52</v>
+      <c r="C50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="E50" s="2">
         <v>107</v>
@@ -2465,12 +2622,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
       <c r="B51" s="2">
         <v>48</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>53</v>
+      <c r="C51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="E51" s="2">
         <v>108</v>
@@ -2479,12 +2640,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
       <c r="B52" s="2">
         <v>49</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>54</v>
+      <c r="C52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="E52" s="2">
         <v>111</v>
@@ -2493,12 +2658,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
       <c r="B53" s="2">
         <v>50</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>55</v>
+      <c r="C53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="E53" s="2">
         <v>112</v>
@@ -2507,12 +2676,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
       <c r="B54" s="2">
         <v>51</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>56</v>
+      <c r="C54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="E54" s="2">
         <v>113</v>
@@ -2527,12 +2700,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
       <c r="B55" s="2">
         <v>52</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>57</v>
+      <c r="C55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="E55" s="2">
         <v>116</v>
@@ -2541,12 +2718,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
       <c r="B56" s="2">
         <v>53</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>58</v>
+      <c r="C56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="E56" s="2">
         <v>117</v>
@@ -2555,12 +2736,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
       <c r="B57" s="2">
         <v>54</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>59</v>
+      <c r="C57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="E57" s="2">
         <v>118</v>
@@ -2575,12 +2760,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
       <c r="B58" s="2">
         <v>55</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>60</v>
+      <c r="C58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E58" s="2">
         <v>121</v>
@@ -2589,12 +2778,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
       <c r="B59" s="2">
         <v>56</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>61</v>
+      <c r="C59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="E59" s="2">
         <v>122</v>
@@ -2603,12 +2796,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
       <c r="B60" s="2">
         <v>57</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>62</v>
+      <c r="C60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="E60" s="2">
         <v>123</v>
@@ -2623,12 +2820,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
       <c r="B61" s="2">
         <v>58</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>63</v>
+      <c r="C61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="E61" s="2">
         <v>126</v>
@@ -2637,12 +2838,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
       <c r="B62" s="2">
         <v>59</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>64</v>
+      <c r="C62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="E62" s="2">
         <v>127</v>
@@ -2651,12 +2856,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
       <c r="B63" s="2">
         <v>60</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>65</v>
+      <c r="C63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="E63" s="2">
         <v>128</v>
@@ -2671,12 +2880,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
       <c r="B64" s="2">
         <v>61</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>66</v>
+      <c r="C64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="E64" s="2">
         <v>131</v>
@@ -2685,12 +2898,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
       <c r="B65" s="2">
         <v>62</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>67</v>
+      <c r="C65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="E65" s="2">
         <v>132</v>
@@ -2699,12 +2916,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
       <c r="B66" s="2">
         <v>63</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>68</v>
+      <c r="C66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="E66" s="2">
         <v>133</v>
@@ -2719,12 +2940,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
       <c r="B67" s="2">
         <v>64</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>69</v>
+      <c r="C67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="E67" s="2">
         <v>134</v>
@@ -2733,12 +2958,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
       <c r="B68" s="2">
         <v>65</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>70</v>
+      <c r="C68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="E68" s="2">
         <v>135</v>
@@ -2747,12 +2976,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
       <c r="B69" s="2">
         <v>66</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>71</v>
+      <c r="C69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="E69" s="2">
         <v>142</v>
@@ -2767,12 +3000,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
       <c r="B70" s="2">
         <v>67</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>72</v>
+      <c r="C70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="E70" s="2">
         <v>136</v>
@@ -2781,12 +3018,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
       <c r="B71" s="2">
         <v>68</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>73</v>
+      <c r="C71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="E71" s="2">
         <v>137</v>
@@ -2795,12 +3036,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
       <c r="B72" s="2">
         <v>69</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>74</v>
+      <c r="C72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="E72" s="2">
         <v>138</v>
@@ -2809,12 +3054,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
       <c r="B73" s="2">
         <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>75</v>
+        <v>89</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="E73" s="2">
         <v>143</v>
@@ -2823,12 +3072,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
       <c r="B74" s="2">
         <v>71</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>76</v>
+        <v>90</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="E74" s="2">
         <v>144</v>
@@ -2837,12 +3090,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
       <c r="B75" s="2">
         <v>72</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="E75" s="2">
         <v>145</v>
@@ -2857,12 +3114,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
       <c r="B76" s="2">
         <v>73</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="E76" s="2">
         <v>147</v>
@@ -2871,12 +3132,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
       <c r="B77" s="2">
         <v>74</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E77" s="2">
         <v>148</v>
@@ -2885,12 +3150,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3"/>
       <c r="B78" s="2">
         <v>75</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E78" s="2">
         <v>149</v>
@@ -2905,12 +3174,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
       <c r="B79" s="2">
         <v>76</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="E79" s="2">
         <v>151</v>
@@ -2919,12 +3192,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
       <c r="B80" s="2">
         <v>77</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="E80" s="2">
         <v>152</v>
@@ -2933,12 +3210,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
       <c r="B81" s="2">
         <v>78</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="E81" s="2">
         <v>153</v>
@@ -2953,12 +3234,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
       <c r="B82" s="2">
         <v>79</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="E82" s="2">
         <v>156</v>
@@ -2967,12 +3252,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
       <c r="B83" s="2">
         <v>80</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="E83" s="2">
         <v>157</v>
@@ -2981,12 +3270,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
       <c r="B84" s="2">
         <v>81</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="E84" s="2">
         <v>158</v>
@@ -3001,12 +3294,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
       <c r="B85" s="2">
         <v>82</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="E85" s="2">
         <v>168</v>
@@ -3015,12 +3312,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
       <c r="B86" s="2">
         <v>83</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="E86" s="2">
         <v>169</v>
@@ -3029,12 +3330,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
       <c r="B87" s="2">
         <v>84</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="E87" s="2">
         <v>170</v>
@@ -3049,12 +3354,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
       <c r="B88" s="2">
         <v>85</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>90</v>
+        <v>104</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="E88" s="2">
         <v>173</v>
@@ -3063,12 +3372,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
       <c r="B89" s="2">
         <v>86</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>91</v>
+        <v>105</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E89" s="2">
         <v>174</v>
@@ -3077,12 +3390,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
       <c r="B90" s="2">
         <v>87</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>92</v>
+        <v>106</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="E90" s="2">
         <v>190</v>
@@ -3091,12 +3408,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
       <c r="B91" s="2">
         <v>88</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="E91" s="2">
         <v>180</v>
@@ -3105,12 +3426,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
       <c r="B92" s="2">
         <v>89</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>94</v>
+        <v>108</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="E92" s="2">
         <v>181</v>
@@ -3119,12 +3444,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="3"/>
       <c r="B93" s="2">
         <v>90</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>95</v>
+        <v>109</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="E93" s="2">
         <v>191</v>
@@ -3139,12 +3468,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
       <c r="B94" s="2">
         <v>91</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E94" s="2">
         <v>182</v>
@@ -3153,12 +3486,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
       <c r="B95" s="2">
         <v>92</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>97</v>
+        <v>111</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E95" s="2">
         <v>183</v>
@@ -3167,12 +3504,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
       <c r="B96" s="2">
         <v>93</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>98</v>
+        <v>112</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E96" s="2">
         <v>184</v>
@@ -3181,12 +3522,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
       <c r="B97" s="2">
         <v>94</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>99</v>
+        <v>113</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="E97" s="2">
         <v>192</v>
@@ -3195,12 +3540,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
       <c r="B98" s="2">
         <v>95</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="E98" s="2">
         <v>193</v>
@@ -3209,12 +3558,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="3"/>
       <c r="B99" s="2">
         <v>96</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="E99" s="2">
         <v>194</v>
@@ -3229,12 +3582,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
       <c r="B100" s="2">
         <v>97</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>102</v>
+        <v>116</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="E100" s="2">
         <v>197</v>
@@ -3243,12 +3600,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
       <c r="B101" s="2">
         <v>98</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="E101" s="2">
         <v>198</v>
@@ -3257,12 +3618,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="3"/>
       <c r="B102" s="2">
         <v>99</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="E102" s="2">
         <v>199</v>
@@ -3277,12 +3642,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
       <c r="B103" s="2">
         <v>100</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>105</v>
+        <v>119</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="E103" s="2">
         <v>202</v>
@@ -3291,12 +3660,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
       <c r="B104" s="2">
         <v>101</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="E104" s="2">
         <v>203</v>
@@ -3305,12 +3678,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
       <c r="B105" s="2">
         <v>102</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="E105" s="2">
         <v>204</v>
@@ -3325,12 +3702,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
       <c r="B106" s="2">
         <v>103</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="E106" s="2">
         <v>206</v>
@@ -3339,12 +3720,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
       <c r="B107" s="2">
         <v>104</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="E107" s="2">
         <v>207</v>
@@ -3353,12 +3738,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="3"/>
       <c r="B108" s="2">
         <v>105</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="E108" s="2">
         <v>208</v>
@@ -3373,12 +3762,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
       <c r="B109" s="2">
         <v>106</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="E109" s="2">
         <v>211</v>
@@ -3387,12 +3780,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
       <c r="B110" s="2">
         <v>107</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>112</v>
+        <v>126</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="E110" s="2">
         <v>212</v>
@@ -3401,12 +3798,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
       <c r="B111" s="2">
         <v>108</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>113</v>
+        <v>127</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="E111" s="2">
         <v>213</v>
@@ -3421,12 +3822,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
       <c r="B112" s="2">
         <v>109</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="E112" s="2">
         <v>216</v>
@@ -3435,12 +3840,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
       <c r="B113" s="2">
         <v>110</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="E113" s="2">
         <v>217</v>
@@ -3449,12 +3858,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
       <c r="B114" s="2">
         <v>111</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="E114" s="2">
         <v>218</v>
@@ -3469,12 +3882,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
       <c r="B115" s="2">
         <v>112</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="E115" s="2">
         <v>221</v>
@@ -3483,12 +3900,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
       <c r="B116" s="2">
         <v>113</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>118</v>
+        <v>132</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="E116" s="2">
         <v>222</v>
@@ -3497,12 +3918,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
       <c r="B117" s="2">
         <v>114</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>119</v>
+        <v>133</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="E117" s="2">
         <v>223</v>
@@ -3511,12 +3936,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
       <c r="B118" s="2">
         <v>115</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>120</v>
+        <v>134</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E118" s="2">
         <v>226</v>
@@ -3525,12 +3954,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
       <c r="B119" s="2">
         <v>116</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="E119" s="2">
         <v>227</v>
@@ -3539,12 +3972,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="3"/>
       <c r="B120" s="2">
         <v>117</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>122</v>
+        <v>136</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="E120" s="2">
         <v>228</v>
@@ -3559,12 +3996,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
       <c r="B121" s="2">
         <v>118</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>123</v>
+        <v>137</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="E121" s="2">
         <v>231</v>
@@ -3573,12 +4014,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
       <c r="B122" s="2">
         <v>119</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="E122" s="2">
         <v>232</v>
@@ -3587,12 +4032,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
       <c r="B123" s="2">
         <v>120</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>125</v>
+        <v>139</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="E123" s="2">
         <v>233</v>
@@ -3601,12 +4050,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
       <c r="B124" s="2">
         <v>121</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>126</v>
+        <v>140</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="E124" s="2">
         <v>234</v>
@@ -3615,12 +4068,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
       <c r="B125" s="2">
         <v>122</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="E125" s="2">
         <v>235</v>
@@ -3629,12 +4086,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="3"/>
       <c r="B126" s="2">
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>128</v>
+        <v>142</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="E126" s="2">
         <v>244</v>
@@ -3649,12 +4110,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
       <c r="B127" s="2">
         <v>124</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>129</v>
+        <v>143</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="E127" s="2">
         <v>236</v>
@@ -3663,12 +4128,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
       <c r="B128" s="2">
         <v>125</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="E128" s="2">
         <v>237</v>
@@ -3677,12 +4146,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
       <c r="B129" s="2">
         <v>126</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="E129" s="2">
         <v>238</v>
@@ -3691,12 +4164,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
       <c r="B130" s="2">
         <v>127</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>132</v>
+      <c r="C130" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E130" s="2">
         <v>272</v>
@@ -3704,13 +4181,18 @@
       <c r="F130" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
       <c r="B131" s="2">
         <v>128</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>133</v>
+      <c r="C131" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E131" s="2">
         <v>273</v>
@@ -3718,13 +4200,18 @@
       <c r="F131" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
       <c r="B132" s="2">
         <v>129</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>134</v>
+      <c r="C132" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E132" s="2">
         <v>274</v>
@@ -3732,13 +4219,18 @@
       <c r="F132" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
       <c r="B133" s="2">
         <v>130</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>135</v>
+      <c r="C133" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E133" s="2">
         <v>275</v>
@@ -3746,13 +4238,18 @@
       <c r="F133" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
       <c r="B134" s="2">
         <v>131</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>136</v>
+      <c r="C134" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E134" s="2">
         <v>276</v>
@@ -3760,13 +4257,18 @@
       <c r="F134" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
       <c r="B135" s="2">
         <v>132</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>137</v>
+      <c r="C135" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E135" s="2">
         <v>277</v>
@@ -3774,13 +4276,18 @@
       <c r="F135" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
       <c r="B136" s="2">
         <v>133</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>138</v>
+      <c r="C136" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E136" s="2">
         <v>278</v>
@@ -3788,13 +4295,18 @@
       <c r="F136" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
       <c r="B137" s="2">
         <v>134</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>139</v>
+      <c r="C137" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E137" s="2">
         <v>279</v>
@@ -3802,13 +4314,18 @@
       <c r="F137" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
       <c r="B138" s="2">
         <v>135</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>140</v>
+      <c r="C138" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E138" s="2">
         <v>280</v>
@@ -3816,13 +4333,18 @@
       <c r="F138" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
       <c r="B139" s="2">
         <v>136</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>141</v>
+      <c r="C139" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E139" s="2">
         <v>281</v>
@@ -3830,13 +4352,18 @@
       <c r="F139" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
       <c r="B140" s="2">
         <v>137</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>142</v>
+      <c r="C140" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E140" s="2">
         <v>282</v>
@@ -3844,13 +4371,18 @@
       <c r="F140" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
       <c r="B141" s="2">
         <v>138</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>143</v>
+      <c r="C141" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E141" s="2">
         <v>283</v>
@@ -3858,13 +4390,18 @@
       <c r="F141" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
       <c r="B142" s="2">
         <v>139</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>144</v>
+      <c r="C142" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E142" s="2">
         <v>284</v>
@@ -3872,13 +4409,18 @@
       <c r="F142" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
       <c r="B143" s="2">
         <v>140</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>145</v>
+      <c r="C143" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E143" s="2">
         <v>285</v>
@@ -3886,13 +4428,18 @@
       <c r="F143" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
       <c r="B144" s="2">
         <v>141</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>146</v>
+      <c r="C144" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E144" s="2">
         <v>286</v>
@@ -3900,13 +4447,18 @@
       <c r="F144" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
       <c r="B145" s="2">
         <v>142</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>147</v>
+      <c r="C145" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E145" s="2">
         <v>287</v>
@@ -3914,13 +4466,18 @@
       <c r="F145" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
       <c r="B146" s="2">
         <v>143</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>148</v>
+      <c r="C146" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E146" s="2">
         <v>288</v>
@@ -3928,13 +4485,18 @@
       <c r="F146" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
       <c r="B147" s="2">
         <v>144</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>149</v>
+      <c r="C147" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E147" s="2">
         <v>289</v>
@@ -3942,13 +4504,18 @@
       <c r="F147" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
       <c r="B148" s="2">
         <v>145</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>150</v>
+      <c r="C148" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E148" s="2">
         <v>290</v>
@@ -3956,13 +4523,18 @@
       <c r="F148" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
       <c r="B149" s="2">
         <v>146</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>151</v>
+      <c r="C149" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E149" s="2">
         <v>291</v>
@@ -3970,13 +4542,18 @@
       <c r="F149" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
       <c r="B150" s="2">
         <v>147</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>152</v>
+      <c r="C150" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E150" s="2">
         <v>292</v>
@@ -3984,13 +4561,18 @@
       <c r="F150" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
       <c r="B151" s="2">
         <v>148</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>153</v>
+      <c r="C151" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E151" s="2">
         <v>293</v>
@@ -3998,13 +4580,18 @@
       <c r="F151" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
       <c r="B152" s="2">
         <v>149</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>154</v>
+      <c r="C152" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E152" s="2">
         <v>294</v>
@@ -4012,13 +4599,18 @@
       <c r="F152" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
       <c r="B153" s="2">
         <v>150</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>155</v>
+      <c r="C153" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E153" s="2">
         <v>295</v>
@@ -4026,13 +4618,18 @@
       <c r="F153" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
       <c r="B154" s="2">
         <v>151</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>156</v>
+      <c r="C154" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E154" s="2">
         <v>296</v>
@@ -4040,13 +4637,18 @@
       <c r="F154" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
       <c r="B155" s="2">
         <v>152</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>157</v>
+      <c r="C155" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E155" s="2">
         <v>297</v>
@@ -4054,13 +4656,18 @@
       <c r="F155" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
       <c r="B156" s="2">
         <v>153</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>158</v>
+      <c r="C156" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E156" s="2">
         <v>298</v>
@@ -4068,13 +4675,18 @@
       <c r="F156" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
       <c r="B157" s="2">
         <v>154</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>159</v>
+      <c r="C157" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E157" s="2">
         <v>299</v>
@@ -4082,13 +4694,18 @@
       <c r="F157" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
       <c r="B158" s="2">
         <v>155</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>160</v>
+      <c r="C158" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E158" s="2">
         <v>300</v>
@@ -4096,13 +4713,18 @@
       <c r="F158" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
       <c r="B159" s="2">
         <v>156</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>161</v>
+      <c r="C159" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E159" s="2">
         <v>301</v>
@@ -4110,13 +4732,18 @@
       <c r="F159" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G159" s="5"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
       <c r="B160" s="2">
         <v>157</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>162</v>
+      <c r="C160" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E160" s="2">
         <v>302</v>
@@ -4124,13 +4751,18 @@
       <c r="F160" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
       <c r="B161" s="2">
         <v>158</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>163</v>
+      <c r="C161" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E161" s="2">
         <v>303</v>
@@ -4138,13 +4770,18 @@
       <c r="F161" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G161" s="5"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
       <c r="B162" s="2">
         <v>159</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>164</v>
+      <c r="C162" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E162" s="2">
         <v>304</v>
@@ -4152,10 +4789,17 @@
       <c r="F162" s="2">
         <v>-1</v>
       </c>
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D164" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
